--- a/data/trans_dic/LAWTONB_2R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2313408719889621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4905603133045167</v>
+        <v>0.4905603133045168</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2610682226871592</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1206445777728466</v>
+        <v>0.1271004176167656</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1766058763808479</v>
+        <v>0.1754784165819635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1192889950641497</v>
+        <v>0.1188229651392442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3842546158456008</v>
+        <v>0.3865812510916114</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1417197521105253</v>
+        <v>0.1280357084205402</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4802528159823551</v>
+        <v>0.4740881500877329</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3698337790092358</v>
+        <v>0.3794853839933623</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4445057194558175</v>
+        <v>0.4298477825855533</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1639641893531913</v>
+        <v>0.1682862810320209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3746256705399493</v>
+        <v>0.3621833671609674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2920860962256899</v>
+        <v>0.29023554586898</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4383554082286144</v>
+        <v>0.4374551039951998</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4080818161040558</v>
+        <v>0.4157163353171175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4596166857518914</v>
+        <v>0.4562476438627491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3659430080488927</v>
+        <v>0.368539246127016</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5931315340264437</v>
+        <v>0.6011201962313256</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4281456529607291</v>
+        <v>0.4249249274436533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7512773513249874</v>
+        <v>0.7549165775399584</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6743122636680833</v>
+        <v>0.681515775607837</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6114674751725381</v>
+        <v>0.6158384460751606</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3595455862975904</v>
+        <v>0.3623436409228758</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5791371528226393</v>
+        <v>0.5789825319371635</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5094304115070445</v>
+        <v>0.4988677615874329</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5770999786333798</v>
+        <v>0.5700505957822454</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3387890386176273</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4521985159294661</v>
+        <v>0.452198515929466</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2369720747940234</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1511041663715511</v>
+        <v>0.1478464801211166</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1867199530853466</v>
+        <v>0.1839445179196077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09055290395710047</v>
+        <v>0.09365307819326314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1260793999469209</v>
+        <v>0.1267005900708577</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1633259108544477</v>
+        <v>0.1557978824974916</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3263618139195001</v>
+        <v>0.3304740332915534</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2444583165063286</v>
+        <v>0.2448816415199701</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3839407604507551</v>
+        <v>0.3890777849528813</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1749311657482411</v>
+        <v>0.1762073016295725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3000291871852707</v>
+        <v>0.2988558209001699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2023803028126374</v>
+        <v>0.1987691169953536</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2974026433740936</v>
+        <v>0.3033051837326862</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3674459279438951</v>
+        <v>0.3659415147076229</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4129614838518152</v>
+        <v>0.4266114324612128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2322755729220418</v>
+        <v>0.243083217427938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2847472922131957</v>
+        <v>0.2849817733488393</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3221200963991338</v>
+        <v>0.3293860315137729</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5231949857991199</v>
+        <v>0.5359202995818448</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4339103007021362</v>
+        <v>0.4473225286170846</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5166680889168312</v>
+        <v>0.5196903568486863</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.312714383909813</v>
+        <v>0.3086484157253882</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4559852264795264</v>
+        <v>0.4558439408950545</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3335166662630623</v>
+        <v>0.3243631345985712</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4045712129428632</v>
+        <v>0.4114172979712698</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2168794458982654</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5270663438283905</v>
+        <v>0.5270663438283903</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3433299428532351</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1112756121099279</v>
+        <v>0.1097935215291121</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1445115533693801</v>
+        <v>0.1507992776964968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1454273481533995</v>
+        <v>0.148754249483154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.29009433638483</v>
+        <v>0.2764709263979886</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3239107457834974</v>
+        <v>0.328959386524881</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2167801719486073</v>
+        <v>0.2311255044228281</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1290690745580503</v>
+        <v>0.1330193309304801</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4506986522434696</v>
+        <v>0.4521306621648633</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2624720557671887</v>
+        <v>0.2707143842680299</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2246068175681651</v>
+        <v>0.2263204776202818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1641451559502405</v>
+        <v>0.1577204301504833</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3954204124779714</v>
+        <v>0.3950909312851875</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3304974349226617</v>
+        <v>0.3167857311479624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.395055534481991</v>
+        <v>0.4009931022361045</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3466802091054476</v>
+        <v>0.3308183730833287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4565648980035744</v>
+        <v>0.4468263579372677</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5383436570315685</v>
+        <v>0.5370870728490424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4401189390304259</v>
+        <v>0.4466942704299967</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3371345311744168</v>
+        <v>0.3323495018435091</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6065730578740045</v>
+        <v>0.6019904526669296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4268716116848079</v>
+        <v>0.4251637325463404</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3761230081699579</v>
+        <v>0.3884511736219464</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2987504954213435</v>
+        <v>0.3110531094157444</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5117480140177642</v>
+        <v>0.5115079003685028</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1785408344472116</v>
+        <v>0.1707919235431735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.220417777626999</v>
+        <v>0.2220536808113825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1404318485846386</v>
+        <v>0.1515239651230836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1541268277570174</v>
+        <v>0.1551767473431306</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3260306994308038</v>
+        <v>0.3254357418505751</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3725738561214204</v>
+        <v>0.3683546594894883</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2127658393782538</v>
+        <v>0.2188969247122282</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2928854089922336</v>
+        <v>0.2934273587438881</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2935244960080594</v>
+        <v>0.2957017219911415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3289671777130473</v>
+        <v>0.3249407597622242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2197074896119676</v>
+        <v>0.2131400030587408</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2435920111887513</v>
+        <v>0.2506282576310292</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4022337548470287</v>
+        <v>0.3977009482435681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4433434513245518</v>
+        <v>0.4604019600921518</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3439114670237167</v>
+        <v>0.3472660656496279</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3073339315265433</v>
+        <v>0.3081974221554719</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5535938336626079</v>
+        <v>0.5482320116472486</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5959223650560019</v>
+        <v>0.5829925920013133</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4265023375026066</v>
+        <v>0.4406100674910874</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.409953937100878</v>
+        <v>0.4028317731098619</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4545196494560501</v>
+        <v>0.4603243448997927</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4901244100744227</v>
+        <v>0.4924318067676423</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3628503503684182</v>
+        <v>0.3664173597749508</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3416377058830454</v>
+        <v>0.3449978220511655</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1171950494495072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2526850800800965</v>
+        <v>0.2526850800800964</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3786492399797145</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1520995928903962</v>
+        <v>0.1726010880744731</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1331862075334008</v>
+        <v>0.1380991024024686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03913661192201108</v>
+        <v>0.0549025496707508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1643551222390289</v>
+        <v>0.1588667785521547</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2250491743239298</v>
+        <v>0.2349142579689373</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3535812679358173</v>
+        <v>0.3589534398710412</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3419176026100154</v>
+        <v>0.3278423833867148</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2232671728987629</v>
+        <v>0.2255035125337818</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2337912599300171</v>
+        <v>0.232394250346873</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3123093862345787</v>
+        <v>0.3099492332027853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.228591503678904</v>
+        <v>0.2149958814236022</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2212274442571262</v>
+        <v>0.2191158133060769</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.460517295304412</v>
+        <v>0.475042898755059</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4604717668922784</v>
+        <v>0.4756506064356932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2286941228073631</v>
+        <v>0.2247312657480305</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3630560478942645</v>
+        <v>0.3781684382912309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5252084274508135</v>
+        <v>0.5406748594438077</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6339228396493779</v>
+        <v>0.639752392032393</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6307108555332896</v>
+        <v>0.6331309667438912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3801200995547227</v>
+        <v>0.3750391654447285</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4564457339271701</v>
+        <v>0.4667366346710692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5238818557396627</v>
+        <v>0.5348196067163568</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.425907313839707</v>
+        <v>0.4156424424419174</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3341664197721467</v>
+        <v>0.3386200837610041</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3470844764600013</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.508361516627887</v>
+        <v>0.5083615166278869</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3908166459910402</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2439404684365244</v>
+        <v>0.2334553989883417</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2276344338800368</v>
+        <v>0.2275926358569583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1896295533283002</v>
+        <v>0.2031748895335762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3235367869109328</v>
+        <v>0.3201759910645238</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2733111328740813</v>
+        <v>0.2782054112214338</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.197094772088794</v>
+        <v>0.1987541688208936</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2240075876034419</v>
+        <v>0.2243925971430822</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4398420994172793</v>
+        <v>0.4306239562243473</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2995837107087834</v>
+        <v>0.3023380966816121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2396126151775676</v>
+        <v>0.2468735082201222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2445672710466514</v>
+        <v>0.2458045176586938</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4035954836244525</v>
+        <v>0.3993033871924367</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5089393191279772</v>
+        <v>0.5100500443727906</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4874947154213442</v>
+        <v>0.4929828359765301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4363986259801462</v>
+        <v>0.4251359562903594</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4890068271077126</v>
+        <v>0.4860533505537873</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5300395017063756</v>
+        <v>0.5166946972561504</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4162356286724314</v>
+        <v>0.4125863058425169</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4750698760058407</v>
+        <v>0.482053736498184</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5861546856958523</v>
+        <v>0.5820507271602799</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4851886261515381</v>
+        <v>0.47957335981848</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.408913036442349</v>
+        <v>0.4103551795210332</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4175839505762197</v>
+        <v>0.4274948130104618</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5117340280851295</v>
+        <v>0.5081659233188321</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.4180969624093911</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3933540162831719</v>
+        <v>0.3933540162831718</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2632851211122202</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.115176587978311</v>
+        <v>0.1242629314103885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1840259996160921</v>
+        <v>0.1858746857970442</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1747652850557181</v>
+        <v>0.1770959476917287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1311574979577732</v>
+        <v>0.1324519640692654</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2562797171468356</v>
+        <v>0.2516455172864478</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2661255033398664</v>
+        <v>0.2628451921198666</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3404310520426784</v>
+        <v>0.3293399999128046</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3287093341884541</v>
+        <v>0.3328388742184787</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2088506327226562</v>
+        <v>0.2058131743407834</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2513946061874902</v>
+        <v>0.2502861214433438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2811137520988625</v>
+        <v>0.2801838995867769</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2492010215242261</v>
+        <v>0.2515318407193327</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2668072102527582</v>
+        <v>0.2630490598960136</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3673138317397658</v>
+        <v>0.3613540840880494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3344069806125841</v>
+        <v>0.3310056836743915</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2568235513115434</v>
+        <v>0.2459165465224218</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4279427969800151</v>
+        <v>0.4269288125371321</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4393204848999877</v>
+        <v>0.4277796123662529</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5103098853005911</v>
+        <v>0.499874398380206</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4569024238467662</v>
+        <v>0.4604801076208767</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3220291195396837</v>
+        <v>0.3278124020608699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3749852734350664</v>
+        <v>0.3752538330246357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4096582505189242</v>
+        <v>0.4058475164405962</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3387099337139901</v>
+        <v>0.3422921533622553</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2365260008031283</v>
+        <v>0.2331958693997574</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.107351475207248</v>
+        <v>0.1082270017389972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1269268611610267</v>
+        <v>0.1283834743957546</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09437171135036523</v>
+        <v>0.1002968759816432</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2432082977517487</v>
+        <v>0.2470547893640242</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2316276229345934</v>
+        <v>0.2332326036262996</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.250828992368874</v>
+        <v>0.2498677444914149</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3094922620269278</v>
+        <v>0.3110865499915728</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2605758769407945</v>
+        <v>0.2672870953186482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1936829164002751</v>
+        <v>0.1941212530430295</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2119464484275586</v>
+        <v>0.2059853024691562</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2273028067963516</v>
+        <v>0.2277998155270863</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4121250180286494</v>
+        <v>0.4020147510808655</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2597360390303175</v>
+        <v>0.2631643212017323</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2549724020834798</v>
+        <v>0.259370931918867</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1830264185021653</v>
+        <v>0.1927607835737057</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4001659141700579</v>
+        <v>0.3930968298622479</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3824094464944134</v>
+        <v>0.3837554631617969</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.410358078900408</v>
+        <v>0.4029854811373077</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4117457610728584</v>
+        <v>0.4143535478053521</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3770444651415411</v>
+        <v>0.3825453253779958</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3000949380773055</v>
+        <v>0.3014495029131681</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3250477332695751</v>
+        <v>0.3186537120935312</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3023670817259112</v>
+        <v>0.3027656942188574</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2202914860407027</v>
+        <v>0.2210239877269374</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3475762249137423</v>
+        <v>0.3481763183053287</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3208745113644059</v>
+        <v>0.3189387289006796</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3886350501782195</v>
+        <v>0.3892821838180633</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3091962648391992</v>
+        <v>0.3077689444602403</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2681313873976914</v>
+        <v>0.2660814686154976</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3207268002662697</v>
+        <v>0.3205222179205318</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2745527401893122</v>
+        <v>0.2738753096692194</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4232204200611187</v>
+        <v>0.4222916346772128</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.394719043445698</v>
+        <v>0.3926505389474234</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4369645196111522</v>
+        <v>0.4373185801282437</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3651658930548391</v>
+        <v>0.3606347514081517</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3188325168477419</v>
+        <v>0.3163489396928801</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3582726036959119</v>
+        <v>0.3588064208908613</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4269</v>
+        <v>4498</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7820</v>
+        <v>7770</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4640</v>
+        <v>4622</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23422</v>
+        <v>23564</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5560</v>
+        <v>5023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23481</v>
+        <v>23180</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18266</v>
+        <v>18743</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29016</v>
+        <v>28059</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12235</v>
+        <v>12557</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34906</v>
+        <v>33746</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25787</v>
+        <v>25624</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55334</v>
+        <v>55220</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14440</v>
+        <v>14711</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20352</v>
+        <v>20203</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14234</v>
+        <v>14335</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36154</v>
+        <v>36641</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16797</v>
+        <v>16670</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36733</v>
+        <v>36911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33305</v>
+        <v>33661</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>39914</v>
+        <v>40199</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26828</v>
+        <v>27037</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53961</v>
+        <v>53947</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44976</v>
+        <v>44044</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>72848</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10072</v>
+        <v>9855</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14789</v>
+        <v>14569</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7905</v>
+        <v>8175</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11025</v>
+        <v>11079</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15986</v>
+        <v>15249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33319</v>
+        <v>33739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28168</v>
+        <v>28217</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51739</v>
+        <v>52432</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28781</v>
+        <v>28991</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>54394</v>
+        <v>54181</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>40987</v>
+        <v>40255</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>66084</v>
+        <v>67395</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24492</v>
+        <v>24391</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32708</v>
+        <v>33789</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20276</v>
+        <v>21220</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24899</v>
+        <v>24920</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31528</v>
+        <v>32239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>53415</v>
+        <v>54714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49999</v>
+        <v>51544</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69626</v>
+        <v>70033</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51451</v>
+        <v>50782</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82668</v>
+        <v>82643</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>67545</v>
+        <v>65691</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>89897</v>
+        <v>91418</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5668</v>
+        <v>5593</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8055</v>
+        <v>8406</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9241</v>
+        <v>9453</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20969</v>
+        <v>19985</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27053</v>
+        <v>27475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17335</v>
+        <v>18483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10312</v>
+        <v>10628</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38436</v>
+        <v>38558</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35292</v>
+        <v>36401</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30481</v>
+        <v>30714</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23545</v>
+        <v>22624</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>62305</v>
+        <v>62253</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16836</v>
+        <v>16137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22021</v>
+        <v>22352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22030</v>
+        <v>21022</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33003</v>
+        <v>32299</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44963</v>
+        <v>44858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35195</v>
+        <v>35721</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26936</v>
+        <v>26554</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51729</v>
+        <v>51338</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57398</v>
+        <v>57168</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>51044</v>
+        <v>52717</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42854</v>
+        <v>44618</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>80634</v>
+        <v>80596</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9842</v>
+        <v>9414</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14113</v>
+        <v>14218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9088</v>
+        <v>9805</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12545</v>
+        <v>12630</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24228</v>
+        <v>24184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31883</v>
+        <v>31522</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19484</v>
+        <v>20045</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32365</v>
+        <v>32425</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37993</v>
+        <v>38274</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>49214</v>
+        <v>48612</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34337</v>
+        <v>33311</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46744</v>
+        <v>48095</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22172</v>
+        <v>21922</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28386</v>
+        <v>29479</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22255</v>
+        <v>22472</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25015</v>
+        <v>25085</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41139</v>
+        <v>40741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50995</v>
+        <v>49889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39057</v>
+        <v>40348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45302</v>
+        <v>44515</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58831</v>
+        <v>59583</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>73324</v>
+        <v>73669</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56708</v>
+        <v>57266</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>65559</v>
+        <v>66204</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4464</v>
+        <v>5065</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4210</v>
+        <v>4366</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1647</v>
+        <v>2310</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5999</v>
+        <v>5799</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9282</v>
+        <v>9689</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17628</v>
+        <v>17896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17278</v>
+        <v>16567</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13656</v>
+        <v>13793</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16504</v>
+        <v>16405</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25443</v>
+        <v>25251</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>21170</v>
+        <v>19911</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21607</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13515</v>
+        <v>13941</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14556</v>
+        <v>15036</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9623</v>
+        <v>9457</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13253</v>
+        <v>13804</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21663</v>
+        <v>22301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31604</v>
+        <v>31895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>31871</v>
+        <v>31993</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23250</v>
+        <v>22939</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32222</v>
+        <v>32948</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42679</v>
+        <v>43570</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>39444</v>
+        <v>38493</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>32637</v>
+        <v>33072</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11513</v>
+        <v>11018</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11781</v>
+        <v>11779</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9187</v>
+        <v>9843</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19485</v>
+        <v>19282</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19216</v>
+        <v>19560</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13838</v>
+        <v>13955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15095</v>
+        <v>15121</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>29238</v>
+        <v>28625</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>35203</v>
+        <v>35527</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>29225</v>
+        <v>30111</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>28329</v>
+        <v>28473</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51135</v>
+        <v>50591</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24020</v>
+        <v>24072</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25231</v>
+        <v>25515</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21142</v>
+        <v>20596</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29450</v>
+        <v>29272</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>37267</v>
+        <v>36328</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29225</v>
+        <v>28969</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>32014</v>
+        <v>32485</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38964</v>
+        <v>38691</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>57013</v>
+        <v>56353</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>49874</v>
+        <v>50050</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>48370</v>
+        <v>49518</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>64836</v>
+        <v>64384</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12200</v>
+        <v>13163</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20659</v>
+        <v>20867</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19606</v>
+        <v>19868</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19743</v>
+        <v>19938</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>30016</v>
+        <v>29473</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>37780</v>
+        <v>37314</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>50256</v>
+        <v>48619</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>53546</v>
+        <v>54218</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>46584</v>
+        <v>45906</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>63911</v>
+        <v>63629</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>73036</v>
+        <v>72795</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>78107</v>
+        <v>78837</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28262</v>
+        <v>27864</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>41236</v>
+        <v>40567</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>37515</v>
+        <v>37134</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>38660</v>
+        <v>37018</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>50121</v>
+        <v>50002</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>62367</v>
+        <v>60728</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>75334</v>
+        <v>73794</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>74428</v>
+        <v>75011</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>71828</v>
+        <v>73118</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>95331</v>
+        <v>95399</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>106433</v>
+        <v>105443</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>106161</v>
+        <v>107284</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>26466</v>
+        <v>26093</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12963</v>
+        <v>13069</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>17030</v>
+        <v>17225</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>15182</v>
+        <v>16135</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>37266</v>
+        <v>37855</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>38084</v>
+        <v>38347</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>44220</v>
+        <v>44051</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>65570</v>
+        <v>65907</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>69083</v>
+        <v>70863</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>55232</v>
+        <v>55357</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>65802</v>
+        <v>63951</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>84724</v>
+        <v>84909</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>46114</v>
+        <v>44983</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31364</v>
+        <v>31778</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>34209</v>
+        <v>34799</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>29444</v>
+        <v>31010</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>61315</v>
+        <v>60232</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>62875</v>
+        <v>63096</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>72345</v>
+        <v>71045</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>87233</v>
+        <v>87786</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>99961</v>
+        <v>101420</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>85578</v>
+        <v>85964</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>100916</v>
+        <v>98931</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>112703</v>
+        <v>112851</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>156453</v>
+        <v>156973</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>258240</v>
+        <v>258686</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>249618</v>
+        <v>248112</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>349079</v>
+        <v>349660</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>402763</v>
+        <v>400904</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>367141</v>
+        <v>364334</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>515865</v>
+        <v>515536</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>194989</v>
+        <v>194508</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>314442</v>
+        <v>313752</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>307064</v>
+        <v>305455</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>392489</v>
+        <v>392807</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>475669</v>
+        <v>469767</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>436564</v>
+        <v>433164</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>576254</v>
+        <v>577113</v>
       </c>
     </row>
     <row r="40">
